--- a/OSINT.xlsx
+++ b/OSINT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\logiciels\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBBCF2A-C4B2-4F6D-8B70-1B7D30D0D226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98661A-B439-46C9-8101-83CF97D2E7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="2" r:id="rId1"/>
@@ -369,6 +369,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>73834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>448683</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3677CD76-3E8F-49D6-B8ED-3304A088279A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11058525" y="454834"/>
+          <a:ext cx="5020683" cy="6290596"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -636,36 +685,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D28B1C-A78B-4439-B5DC-E7509CD0193B}">
   <dimension ref="F7:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="97.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="97.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="7:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="7:7" ht="29.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="7:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="7:7" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="7:7" ht="105.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="7:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="7:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="7:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -673,19 +723,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="146.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
     <col min="3" max="3" width="148" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -696,7 +746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -704,7 +754,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="106.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -716,7 +766,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -724,7 +774,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -732,7 +782,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="123.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -740,7 +790,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -748,7 +798,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -756,7 +806,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -764,12 +814,12 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="9" t="s">
         <v>16</v>
@@ -777,33 +827,33 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -821,14 +871,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="160.88671875" customWidth="1"/>
-    <col min="3" max="3" width="107.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="160.85546875" customWidth="1"/>
+    <col min="3" max="3" width="107.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -839,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -847,7 +897,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="169.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="169.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -859,7 +909,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -867,7 +917,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -875,7 +925,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -883,7 +933,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -891,7 +941,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -899,7 +949,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -907,12 +957,12 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="9" t="s">
         <v>17</v>
@@ -920,34 +970,34 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -964,14 +1014,14 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="158.77734375" customWidth="1"/>
-    <col min="3" max="3" width="115.44140625" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="158.7109375" customWidth="1"/>
+    <col min="3" max="3" width="115.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -990,7 +1040,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1002,7 +1052,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1060,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1068,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1026,7 +1076,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1084,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1042,7 +1092,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1050,12 +1100,12 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -1063,34 +1113,34 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -1104,17 +1154,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="146.109375" customWidth="1"/>
-    <col min="3" max="3" width="93.21875" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1125,7 +1175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1183,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1145,7 +1195,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1203,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1211,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1219,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1227,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1235,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1193,12 +1243,12 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="9" t="s">
         <v>23</v>
@@ -1206,34 +1256,34 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -1250,14 +1300,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="146.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
     <col min="3" max="3" width="148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1326,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1338,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1296,7 +1346,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1304,7 +1354,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1362,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1320,7 +1370,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1378,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1336,12 +1386,12 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="9" t="s">
         <v>26</v>
@@ -1349,34 +1399,34 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
@@ -1389,18 +1439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D27FF03-2EFB-4BD5-9605-7F2537F305C3}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="146.109375" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="146.140625" customWidth="1"/>
     <col min="3" max="3" width="148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1419,7 +1469,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1481,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1439,7 +1489,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1447,7 +1497,7 @@
       <c r="C5" s="8"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1455,7 +1505,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1513,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="83.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1521,7 @@
       <c r="C8" s="8"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1479,12 +1529,12 @@
       <c r="C9" s="8"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:4" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11"/>
       <c r="B11" s="9" t="s">
         <v>29</v>
@@ -1492,34 +1542,34 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
